--- a/test/erwartetes_Ergebnis/Kicktipp_Auswertung_Spieltag2.xlsx
+++ b/test/erwartetes_Ergebnis/Kicktipp_Auswertung_Spieltag2.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse aktueller Spieltag" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Tabelle" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="nächste Begegnungen" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -123,43 +123,43 @@
     <t xml:space="preserve">Hertha BSC</t>
   </si>
   <si>
+    <t xml:space="preserve">1. FSV Mainz 05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bayer Leverkusen</t>
   </si>
   <si>
-    <t xml:space="preserve">1. FSV Mainz 05</t>
+    <t xml:space="preserve">SC Freiburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VfL Wolfsburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arminia Bielefeld</t>
   </si>
   <si>
     <t xml:space="preserve">1. FC Union Berlin</t>
   </si>
   <si>
-    <t xml:space="preserve">SC Freiburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VfL Wolfsburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arminia Bielefeld</t>
-  </si>
-  <si>
     <t xml:space="preserve">FC Bayern München</t>
   </si>
   <si>
+    <t xml:space="preserve">1. FC Köln</t>
+  </si>
+  <si>
     <t xml:space="preserve">VfB Stuttgart</t>
   </si>
   <si>
-    <t xml:space="preserve">1. FC Köln</t>
-  </si>
-  <si>
     <t xml:space="preserve">FC Augsburg</t>
   </si>
   <si>
     <t xml:space="preserve">Eintracht Frankfurt</t>
   </si>
   <si>
+    <t xml:space="preserve">Borussia Mönchengladbach</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSG 1899 Hoffenheim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borussia Mönchengladbach</t>
   </si>
   <si>
     <t xml:space="preserve">RB Leipzig</t>
@@ -204,7 +204,7 @@
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -285,13 +285,13 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -308,7 +308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
@@ -325,7 +325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -342,7 +342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
@@ -359,7 +359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
@@ -376,7 +376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
@@ -393,7 +393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
@@ -410,7 +410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>2</v>
       </c>
@@ -427,7 +427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>2</v>
       </c>
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>2</v>
       </c>
@@ -479,13 +479,13 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>23</v>
       </c>
@@ -511,15 +511,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <f aca="false">B2-A2</f>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>21</v>
@@ -537,15 +538,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4</v>
+        <f aca="false">B3-A3</f>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>17</v>
@@ -563,18 +565,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <f aca="false">B4-A4</f>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>33</v>
@@ -583,24 +586,25 @@
         <v>4</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>5</v>
+        <f aca="false">B5-A5</f>
+        <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>34</v>
@@ -609,24 +613,25 @@
         <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">B6-A6</f>
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>35</v>
@@ -635,24 +640,25 @@
         <v>3</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>10</v>
+        <f aca="false">B7-A7</f>
+        <v>-4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>36</v>
@@ -661,24 +667,25 @@
         <v>3</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-6</v>
+        <f aca="false">B8-A8</f>
+        <v>-4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>37</v>
@@ -687,24 +694,25 @@
         <v>3</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>-4</v>
+        <f aca="false">B9-A9</f>
+        <v>6</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>38</v>
@@ -713,21 +721,22 @@
         <v>3</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>-4</v>
+        <f aca="false">B10-A10</f>
+        <v>-3</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>5</v>
@@ -745,18 +754,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>8</v>
+        <f aca="false">B11-A11</f>
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>40</v>
@@ -765,24 +775,25 @@
         <v>3</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>6</v>
+        <f aca="false">B12-A12</f>
+        <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>41</v>
@@ -791,13 +802,13 @@
         <v>3</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -805,6 +816,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="0" t="n">
+        <f aca="false">B13-A13</f>
         <v>-5</v>
       </c>
       <c r="D13" s="0" t="s">
@@ -823,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -831,6 +843,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="0" t="n">
+        <f aca="false">B14-A14</f>
         <v>-4</v>
       </c>
       <c r="D14" s="0" t="s">
@@ -849,18 +862,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-7</v>
+        <f aca="false">B15-A15</f>
+        <v>-1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>44</v>
@@ -869,24 +883,25 @@
         <v>1</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>-1</v>
+        <f aca="false">B16-A16</f>
+        <v>-8</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>45</v>
@@ -895,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -909,6 +924,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="0" t="n">
+        <f aca="false">B17-A17</f>
         <v>-7</v>
       </c>
       <c r="D17" s="0" t="s">
@@ -927,7 +943,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -935,6 +951,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="0" t="n">
+        <f aca="false">B18-A18</f>
         <v>-8</v>
       </c>
       <c r="D18" s="0" t="s">
@@ -953,15 +970,16 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-3</v>
+        <f aca="false">B19-A19</f>
+        <v>-1</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>19</v>
@@ -1001,9 +1019,9 @@
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>3</v>
       </c>
@@ -1025,7 +1043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>3</v>
       </c>
@@ -1036,7 +1054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
@@ -1058,7 +1076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>3</v>
       </c>
@@ -1069,7 +1087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
@@ -1080,7 +1098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>3</v>
       </c>
@@ -1091,7 +1109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>3</v>
       </c>
@@ -1102,7 +1120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>3</v>
       </c>
